--- a/data/trans_bre/P1408-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1408-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-1.039018089701322</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.051536822283553</v>
+        <v>-0.05153682228355508</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.4549656176372239</v>
@@ -649,7 +649,7 @@
         <v>-0.3821312964721143</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.009778809877138939</v>
+        <v>-0.009778809877139331</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.759072642074644</v>
+        <v>-5.716492666471431</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.61955883735873</v>
+        <v>-2.665675695257539</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.497020938244304</v>
+        <v>-2.13055685207405</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.506761363717305</v>
+        <v>-2.54888010478998</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6661910266136187</v>
+        <v>-0.6442640396260761</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6927886890188821</v>
+        <v>-0.7268517780651578</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6930746597012564</v>
+        <v>-0.6392787138221052</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3852045189403865</v>
+        <v>-0.3815109392461395</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.9433951573304002</v>
+        <v>-0.7596983181844452</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1148690662199142</v>
+        <v>-0.02087484684130984</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1840004483665954</v>
+        <v>0.2514806517882078</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.568361398964095</v>
+        <v>2.967428543366164</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.1569859775522492</v>
+        <v>-0.1202770228906571</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1199200987540126</v>
+        <v>0.01296338401921672</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1105842240097148</v>
+        <v>0.1725797038640839</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6484485674956071</v>
+        <v>0.7166725771757836</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-1.058699976782441</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.1852774369770833</v>
+        <v>-0.1852774369770823</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.4003793703573025</v>
@@ -749,7 +749,7 @@
         <v>-0.5201413118520793</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.06862143871636811</v>
+        <v>-0.06862143871636775</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.195159737800673</v>
+        <v>-3.167356442938833</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.11847709270947</v>
+        <v>-2.042070067760645</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.200952354573672</v>
+        <v>-2.245422802765638</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.585263581798468</v>
+        <v>-1.48788042170725</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6484295087009179</v>
+        <v>-0.6322659958292759</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8076354592964622</v>
+        <v>-0.7671101008070529</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7971861473289966</v>
+        <v>-0.8051642347238444</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4609653351779489</v>
+        <v>-0.4401590948565302</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.1988048186735017</v>
+        <v>-0.1674827770527713</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1419422927861528</v>
+        <v>0.09393517323977872</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.04978321419853684</v>
+        <v>0.04490755451295542</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.11439126371192</v>
+        <v>1.114005971784977</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.04065538406977919</v>
+        <v>-0.03194151469334836</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1754111369236086</v>
+        <v>0.1574626044923622</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02665075169496465</v>
+        <v>0.083113034913755</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5639026667667101</v>
+        <v>0.5408080960273242</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.2808400338598102</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.3294178363094289</v>
+        <v>-0.3294178363094282</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.4994429108498526</v>
@@ -849,7 +849,7 @@
         <v>0.2082532898309351</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1747779873618766</v>
+        <v>-0.1747779873618763</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.043939550702338</v>
+        <v>-3.044773056567752</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.841095889665271</v>
+        <v>-2.791944619704223</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8469498648743834</v>
+        <v>-0.8421204754021617</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.302159128165839</v>
+        <v>-1.337505242308324</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7249823975710254</v>
+        <v>-0.7326301477452831</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.8293467329129786</v>
+        <v>-0.8299869513581536</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4853857042398061</v>
+        <v>-0.5160466231912542</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5370466805773689</v>
+        <v>-0.5340772195737385</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.2365361671134954</v>
+        <v>-0.2957017199328475</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.003931502576488263</v>
+        <v>0.04060405277733733</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.635511702382891</v>
+        <v>1.468543583253332</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6492008812378168</v>
+        <v>0.5618207284734313</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.07977876062159724</v>
+        <v>-0.04315878493831597</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1129483009927453</v>
+        <v>0.07065700382111323</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.161673334605097</v>
+        <v>1.651028958441314</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.525921625393389</v>
+        <v>0.4238789587514835</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.8228866421744051</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2256208414725597</v>
+        <v>0.2256208414725593</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3747701968970865</v>
@@ -949,7 +949,7 @@
         <v>-0.6722152724224485</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1263103012179789</v>
+        <v>0.1263103012179787</v>
       </c>
     </row>
     <row r="14">
@@ -960,26 +960,26 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.466300625832129</v>
+        <v>-1.326045339325132</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.409400758422492</v>
+        <v>-1.376391958900156</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.083486217187822</v>
+        <v>-2.087767091332951</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.8005497614079695</v>
+        <v>-0.9037591743447916</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6108645145484989</v>
+        <v>-0.5878230196606273</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8400669818806303</v>
+        <v>-0.8581502028837832</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>-0.3533516580338037</v>
+        <v>-0.4133276856910136</v>
       </c>
     </row>
     <row r="15">
@@ -990,26 +990,26 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.926933512098986</v>
+        <v>2.837606051634406</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.158789302894948</v>
+        <v>1.197229338213898</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2273374123957066</v>
+        <v>0.1987163415598444</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.306663116011946</v>
+        <v>1.203204603569159</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.136540638857463</v>
+        <v>2.845311366784943</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.07401229008883</v>
+        <v>3.539759493302169</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>1.01433201825197</v>
+        <v>0.9409008819070093</v>
       </c>
     </row>
     <row r="16">
@@ -1033,7 +1033,7 @@
         <v>-0.6836258780699921</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.01009476379782229</v>
+        <v>0.01009476379782333</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.3546395378803604</v>
@@ -1045,7 +1045,7 @@
         <v>-0.3462628119944443</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.003934848081866908</v>
+        <v>0.003934848081867314</v>
       </c>
     </row>
     <row r="17">
@@ -1056,28 +1056,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.271156975713177</v>
+        <v>-2.355452792320159</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.656762352690434</v>
+        <v>-1.631995361025634</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.351970413087169</v>
+        <v>-1.377233678690955</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.6744204657190452</v>
+        <v>-0.6820656552434508</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5025369401283104</v>
+        <v>-0.5171017156437006</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6292233367873845</v>
+        <v>-0.6214631426684558</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.5636197838074039</v>
+        <v>-0.5785250550924046</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2294539353164854</v>
+        <v>-0.2346840334217378</v>
       </c>
     </row>
     <row r="18">
@@ -1088,28 +1088,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.5241499043612656</v>
+        <v>-0.5703009815048631</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.3338124017928759</v>
+        <v>-0.3271816614785904</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.06474757288516789</v>
+        <v>-0.08912659300537165</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6615796829276155</v>
+        <v>0.6324742885331459</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1444068676697575</v>
+        <v>-0.1588201180096138</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.1641536519019529</v>
+        <v>-0.1733452490529891</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.02794366496059035</v>
+        <v>-0.04102742483813693</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2990030244731398</v>
+        <v>0.2813908810537304</v>
       </c>
     </row>
     <row r="19">
